--- a/ConvertedEqual/New York_Converted.xlsx
+++ b/ConvertedEqual/New York_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="292">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -856,6 +856,42 @@
   <si>
     <t>9/29/2020</t>
   </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
+  </si>
 </sst>
 </file>
 
@@ -1216,7 +1252,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ221"/>
+  <dimension ref="A1:AQ233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1518,6 +1554,12 @@
       <c r="M3" s="2">
         <v>43912</v>
       </c>
+      <c r="N3" s="2">
+        <v>43912</v>
+      </c>
+      <c r="O3" s="2">
+        <v>43909</v>
+      </c>
       <c r="P3" s="2">
         <v>43906</v>
       </c>
@@ -1549,6 +1591,9 @@
         <v>43917</v>
       </c>
       <c r="Z3" s="2">
+        <v>43912</v>
+      </c>
+      <c r="AA3" s="2">
         <v>43912</v>
       </c>
       <c r="AB3" s="2">
@@ -1767,7 +1812,7 @@
         <v>0.1428571429</v>
       </c>
       <c r="U7">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0.1428571429</v>
@@ -1779,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1809,13 +1854,13 @@
         <v>0.3333333333</v>
       </c>
       <c r="AI7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>0.2</v>
       </c>
       <c r="AK7">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>0.2</v>
@@ -1833,7 +1878,7 @@
         <v>0.1428571429</v>
       </c>
       <c r="AQ7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -3410,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="AQ20">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -3541,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="AQ21">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -3672,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="AQ22">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -3803,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="AQ23">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:43">
@@ -3934,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="AQ24">
-        <v>0.2435897435846154</v>
+        <v>0.2638888888833333</v>
       </c>
     </row>
     <row r="25" spans="1:43">
@@ -4065,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="AQ25">
-        <v>0.2435897435846154</v>
+        <v>0.2638888888833333</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -4196,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="AQ26">
-        <v>0.3205128205076923</v>
+        <v>0.3472222222166667</v>
       </c>
     </row>
     <row r="27" spans="1:43">
@@ -4243,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27">
         <v>1</v>
@@ -4327,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="AQ27">
-        <v>0.4019230769153846</v>
+        <v>0.452083333325</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -4374,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28">
         <v>1</v>
@@ -4458,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="AQ28">
-        <v>0.4019230769153846</v>
+        <v>0.452083333325</v>
       </c>
     </row>
     <row r="29" spans="1:43">
@@ -4505,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29">
         <v>1</v>
@@ -4589,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>0.4788461538615384</v>
+        <v>0.5354166666833332</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -4633,10 +4678,10 @@
         <v>1</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
         <v>1</v>
@@ -4672,7 +4717,7 @@
         <v>1</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30">
         <v>1</v>
@@ -4720,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>0.7923076923230769</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -4764,10 +4809,10 @@
         <v>1</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31">
         <v>1</v>
@@ -4803,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31">
         <v>1</v>
@@ -4851,7 +4896,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>0.7923076923230769</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="32" spans="1:43">
@@ -4895,10 +4940,10 @@
         <v>1</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32">
         <v>1</v>
@@ -4934,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32">
         <v>1</v>
@@ -4982,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>0.7923076923230769</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="33" spans="1:43">
@@ -5026,10 +5071,10 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
         <v>1</v>
@@ -5065,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33">
         <v>1</v>
@@ -5113,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>0.7923076923230769</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="34" spans="1:43">
@@ -5157,10 +5202,10 @@
         <v>1</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34">
         <v>1</v>
@@ -5196,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34">
         <v>1</v>
@@ -5244,7 +5289,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>0.7923076923230769</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="35" spans="1:43">
@@ -5288,10 +5333,10 @@
         <v>1</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35">
         <v>1</v>
@@ -5327,7 +5372,7 @@
         <v>1</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35">
         <v>1</v>
@@ -5375,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>0.8019230769384614</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="36" spans="1:43">
@@ -5419,10 +5464,10 @@
         <v>1</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36">
         <v>1</v>
@@ -5458,7 +5503,7 @@
         <v>1</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36">
         <v>1</v>
@@ -5506,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>0.8019230769384614</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="37" spans="1:43">
@@ -5550,10 +5595,10 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37">
         <v>1</v>
@@ -5589,7 +5634,7 @@
         <v>1</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB37">
         <v>1</v>
@@ -5637,7 +5682,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>0.8019230769384614</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="38" spans="1:43">
@@ -5681,10 +5726,10 @@
         <v>1</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38">
         <v>1</v>
@@ -5720,7 +5765,7 @@
         <v>1</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB38">
         <v>1</v>
@@ -5768,7 +5813,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.8019230769384614</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="39" spans="1:43">
@@ -5812,10 +5857,10 @@
         <v>1</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39">
         <v>1</v>
@@ -5851,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="AA39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB39">
         <v>1</v>
@@ -5899,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>0.8019230769384614</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="40" spans="1:43">
@@ -5943,10 +5988,10 @@
         <v>1</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40">
         <v>1</v>
@@ -5982,7 +6027,7 @@
         <v>1</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB40">
         <v>1</v>
@@ -6030,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>0.8019230769384614</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="41" spans="1:43">
@@ -6074,10 +6119,10 @@
         <v>1</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41">
         <v>1</v>
@@ -6113,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB41">
         <v>1</v>
@@ -6161,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>0.8019230769384614</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="42" spans="1:43">
@@ -6205,10 +6250,10 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42">
         <v>1</v>
@@ -6244,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="AA42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB42">
         <v>1</v>
@@ -6292,7 +6337,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>0.8019230769384614</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="43" spans="1:43">
@@ -6336,10 +6381,10 @@
         <v>1</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43">
         <v>1</v>
@@ -6375,7 +6420,7 @@
         <v>1</v>
       </c>
       <c r="AA43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB43">
         <v>1</v>
@@ -6423,7 +6468,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>0.8019230769384614</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="44" spans="1:43">
@@ -6467,10 +6512,10 @@
         <v>1</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44">
         <v>1</v>
@@ -6506,7 +6551,7 @@
         <v>1</v>
       </c>
       <c r="AA44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB44">
         <v>1</v>
@@ -6554,7 +6599,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>0.8019230769384614</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="45" spans="1:43">
@@ -6598,10 +6643,10 @@
         <v>1</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45">
         <v>1</v>
@@ -6637,7 +6682,7 @@
         <v>1</v>
       </c>
       <c r="AA45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45">
         <v>1</v>
@@ -6685,7 +6730,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>0.8019230769384614</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="46" spans="1:43">
@@ -6729,10 +6774,10 @@
         <v>1</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -6768,7 +6813,7 @@
         <v>1</v>
       </c>
       <c r="AA46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB46">
         <v>1</v>
@@ -6816,7 +6861,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>0.8019230769384614</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="47" spans="1:43">
@@ -6860,10 +6905,10 @@
         <v>1</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47">
         <v>1</v>
@@ -6899,7 +6944,7 @@
         <v>1</v>
       </c>
       <c r="AA47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB47">
         <v>1</v>
@@ -6947,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>0.8019230769384614</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="48" spans="1:43">
@@ -6991,10 +7036,10 @@
         <v>1</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -7030,7 +7075,7 @@
         <v>1</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB48">
         <v>1</v>
@@ -7078,7 +7123,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.8019230769384614</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="49" spans="1:43">
@@ -7122,10 +7167,10 @@
         <v>1</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -7161,7 +7206,7 @@
         <v>1</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB49">
         <v>1</v>
@@ -7209,7 +7254,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>0.8019230769384614</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="50" spans="1:43">
@@ -7253,10 +7298,10 @@
         <v>1</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50">
         <v>1</v>
@@ -7292,7 +7337,7 @@
         <v>1</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB50">
         <v>1</v>
@@ -7340,7 +7385,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>0.8019230769384614</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="51" spans="1:43">
@@ -7384,10 +7429,10 @@
         <v>1</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51">
         <v>1</v>
@@ -7423,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB51">
         <v>1</v>
@@ -7471,7 +7516,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>0.8019230769384614</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="52" spans="1:43">
@@ -7515,10 +7560,10 @@
         <v>1</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52">
         <v>1</v>
@@ -7554,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AA52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB52">
         <v>1</v>
@@ -7602,7 +7647,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>0.8019230769384614</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="53" spans="1:43">
@@ -7646,10 +7691,10 @@
         <v>1</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53">
         <v>1</v>
@@ -7685,7 +7730,7 @@
         <v>1</v>
       </c>
       <c r="AA53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB53">
         <v>1</v>
@@ -7733,7 +7778,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>0.8019230769384614</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="54" spans="1:43">
@@ -7777,10 +7822,10 @@
         <v>1</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54">
         <v>1</v>
@@ -7816,7 +7861,7 @@
         <v>1</v>
       </c>
       <c r="AA54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB54">
         <v>1</v>
@@ -7864,7 +7909,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>0.8019230769384614</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="55" spans="1:43">
@@ -7908,10 +7953,10 @@
         <v>1</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55">
         <v>1</v>
@@ -7947,7 +7992,7 @@
         <v>1</v>
       </c>
       <c r="AA55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB55">
         <v>1</v>
@@ -7995,7 +8040,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>0.8019230769384614</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="56" spans="1:43">
@@ -8039,10 +8084,10 @@
         <v>1</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56">
         <v>1</v>
@@ -8078,7 +8123,7 @@
         <v>1</v>
       </c>
       <c r="AA56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB56">
         <v>1</v>
@@ -8126,7 +8171,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="57" spans="1:43">
@@ -8170,10 +8215,10 @@
         <v>1</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57">
         <v>1</v>
@@ -8209,7 +8254,7 @@
         <v>1</v>
       </c>
       <c r="AA57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB57">
         <v>1</v>
@@ -8257,7 +8302,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="58" spans="1:43">
@@ -8301,10 +8346,10 @@
         <v>1</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58">
         <v>1</v>
@@ -8340,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="AA58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB58">
         <v>1</v>
@@ -8388,7 +8433,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="59" spans="1:43">
@@ -8432,10 +8477,10 @@
         <v>1</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59">
         <v>1</v>
@@ -8471,7 +8516,7 @@
         <v>1</v>
       </c>
       <c r="AA59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB59">
         <v>1</v>
@@ -8519,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="60" spans="1:43">
@@ -8563,10 +8608,10 @@
         <v>1</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60">
         <v>1</v>
@@ -8602,7 +8647,7 @@
         <v>1</v>
       </c>
       <c r="AA60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB60">
         <v>1</v>
@@ -8650,7 +8695,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="61" spans="1:43">
@@ -8694,10 +8739,10 @@
         <v>1</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61">
         <v>1</v>
@@ -8733,7 +8778,7 @@
         <v>1</v>
       </c>
       <c r="AA61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB61">
         <v>1</v>
@@ -8781,7 +8826,7 @@
         <v>1</v>
       </c>
       <c r="AQ61">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="62" spans="1:43">
@@ -8825,10 +8870,10 @@
         <v>1</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62">
         <v>1</v>
@@ -8864,7 +8909,7 @@
         <v>1</v>
       </c>
       <c r="AA62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB62">
         <v>1</v>
@@ -8912,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="AQ62">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="63" spans="1:43">
@@ -8956,10 +9001,10 @@
         <v>1</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63">
         <v>1</v>
@@ -8995,7 +9040,7 @@
         <v>1</v>
       </c>
       <c r="AA63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB63">
         <v>1</v>
@@ -9043,7 +9088,7 @@
         <v>1</v>
       </c>
       <c r="AQ63">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="64" spans="1:43">
@@ -9087,10 +9132,10 @@
         <v>1</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64">
         <v>1</v>
@@ -9126,7 +9171,7 @@
         <v>1</v>
       </c>
       <c r="AA64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB64">
         <v>1</v>
@@ -9174,7 +9219,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="65" spans="1:43">
@@ -9218,10 +9263,10 @@
         <v>1</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65">
         <v>1</v>
@@ -9257,7 +9302,7 @@
         <v>1</v>
       </c>
       <c r="AA65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB65">
         <v>1</v>
@@ -9305,7 +9350,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="66" spans="1:43">
@@ -9349,10 +9394,10 @@
         <v>1</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66">
         <v>1</v>
@@ -9388,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="AA66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB66">
         <v>1</v>
@@ -9436,7 +9481,7 @@
         <v>1</v>
       </c>
       <c r="AQ66">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="67" spans="1:43">
@@ -9480,10 +9525,10 @@
         <v>1</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67">
         <v>1</v>
@@ -9519,7 +9564,7 @@
         <v>1</v>
       </c>
       <c r="AA67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB67">
         <v>1</v>
@@ -9567,7 +9612,7 @@
         <v>1</v>
       </c>
       <c r="AQ67">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="68" spans="1:43">
@@ -9611,10 +9656,10 @@
         <v>1</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68">
         <v>1</v>
@@ -9650,7 +9695,7 @@
         <v>1</v>
       </c>
       <c r="AA68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB68">
         <v>1</v>
@@ -9698,7 +9743,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="69" spans="1:43">
@@ -9742,10 +9787,10 @@
         <v>1</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69">
         <v>1</v>
@@ -9781,7 +9826,7 @@
         <v>1</v>
       </c>
       <c r="AA69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB69">
         <v>1</v>
@@ -9829,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="70" spans="1:43">
@@ -9873,10 +9918,10 @@
         <v>1</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70">
         <v>1</v>
@@ -9912,7 +9957,7 @@
         <v>1</v>
       </c>
       <c r="AA70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB70">
         <v>1</v>
@@ -9960,7 +10005,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="71" spans="1:43">
@@ -10004,10 +10049,10 @@
         <v>1</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71">
         <v>1</v>
@@ -10043,7 +10088,7 @@
         <v>1</v>
       </c>
       <c r="AA71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB71">
         <v>1</v>
@@ -10091,7 +10136,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="72" spans="1:43">
@@ -10135,10 +10180,10 @@
         <v>1</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72">
         <v>1</v>
@@ -10174,7 +10219,7 @@
         <v>1</v>
       </c>
       <c r="AA72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB72">
         <v>1</v>
@@ -10222,7 +10267,7 @@
         <v>1</v>
       </c>
       <c r="AQ72">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="73" spans="1:43">
@@ -10266,10 +10311,10 @@
         <v>1</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73">
         <v>1</v>
@@ -10305,7 +10350,7 @@
         <v>1</v>
       </c>
       <c r="AA73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB73">
         <v>1</v>
@@ -10353,7 +10398,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="74" spans="1:43">
@@ -10397,10 +10442,10 @@
         <v>1</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74">
         <v>1</v>
@@ -10436,7 +10481,7 @@
         <v>1</v>
       </c>
       <c r="AA74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB74">
         <v>1</v>
@@ -10484,7 +10529,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="75" spans="1:43">
@@ -10528,10 +10573,10 @@
         <v>1</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75">
         <v>1</v>
@@ -10567,7 +10612,7 @@
         <v>1</v>
       </c>
       <c r="AA75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB75">
         <v>1</v>
@@ -10615,7 +10660,7 @@
         <v>1</v>
       </c>
       <c r="AQ75">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="76" spans="1:43">
@@ -10659,10 +10704,10 @@
         <v>1</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76">
         <v>1</v>
@@ -10698,7 +10743,7 @@
         <v>1</v>
       </c>
       <c r="AA76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB76">
         <v>1</v>
@@ -10746,7 +10791,7 @@
         <v>1</v>
       </c>
       <c r="AQ76">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="77" spans="1:43">
@@ -10790,10 +10835,10 @@
         <v>1</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77">
         <v>1</v>
@@ -10829,7 +10874,7 @@
         <v>1</v>
       </c>
       <c r="AA77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB77">
         <v>1</v>
@@ -10877,7 +10922,7 @@
         <v>1</v>
       </c>
       <c r="AQ77">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="78" spans="1:43">
@@ -10921,10 +10966,10 @@
         <v>1</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P78">
         <v>1</v>
@@ -10960,7 +11005,7 @@
         <v>1</v>
       </c>
       <c r="AA78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB78">
         <v>1</v>
@@ -11008,7 +11053,7 @@
         <v>1</v>
       </c>
       <c r="AQ78">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="79" spans="1:43">
@@ -11052,10 +11097,10 @@
         <v>1</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79">
         <v>1</v>
@@ -11091,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="AA79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB79">
         <v>1</v>
@@ -11139,7 +11184,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="80" spans="1:43">
@@ -11183,10 +11228,10 @@
         <v>1</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P80">
         <v>1</v>
@@ -11222,7 +11267,7 @@
         <v>1</v>
       </c>
       <c r="AA80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB80">
         <v>1</v>
@@ -11270,7 +11315,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="81" spans="1:43">
@@ -11314,10 +11359,10 @@
         <v>1</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P81">
         <v>1</v>
@@ -11353,7 +11398,7 @@
         <v>1</v>
       </c>
       <c r="AA81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB81">
         <v>1</v>
@@ -11401,7 +11446,7 @@
         <v>1</v>
       </c>
       <c r="AQ81">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="82" spans="1:43">
@@ -11445,10 +11490,10 @@
         <v>1</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P82">
         <v>1</v>
@@ -11484,7 +11529,7 @@
         <v>1</v>
       </c>
       <c r="AA82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB82">
         <v>1</v>
@@ -11532,7 +11577,7 @@
         <v>1</v>
       </c>
       <c r="AQ82">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="83" spans="1:43">
@@ -11576,10 +11621,10 @@
         <v>1</v>
       </c>
       <c r="N83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83">
         <v>1</v>
@@ -11615,7 +11660,7 @@
         <v>1</v>
       </c>
       <c r="AA83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB83">
         <v>1</v>
@@ -11663,7 +11708,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="84" spans="1:43">
@@ -11707,10 +11752,10 @@
         <v>1</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P84">
         <v>1</v>
@@ -11746,7 +11791,7 @@
         <v>1</v>
       </c>
       <c r="AA84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB84">
         <v>1</v>
@@ -11794,7 +11839,7 @@
         <v>1</v>
       </c>
       <c r="AQ84">
-        <v>0.8788461538615384</v>
+        <v>0.9166666666833333</v>
       </c>
     </row>
     <row r="85" spans="1:43">
@@ -11838,10 +11883,10 @@
         <v>1</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P85">
         <v>1</v>
@@ -11877,7 +11922,7 @@
         <v>1</v>
       </c>
       <c r="AA85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB85">
         <v>1</v>
@@ -11925,7 +11970,7 @@
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>0.8634615384769231</v>
+        <v>0.9000000000166667</v>
       </c>
     </row>
     <row r="86" spans="1:43">
@@ -11969,10 +12014,10 @@
         <v>1</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86">
         <v>1</v>
@@ -12008,7 +12053,7 @@
         <v>1</v>
       </c>
       <c r="AA86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB86">
         <v>1</v>
@@ -12056,7 +12101,7 @@
         <v>1</v>
       </c>
       <c r="AQ86">
-        <v>0.8634615384769231</v>
+        <v>0.9000000000166667</v>
       </c>
     </row>
     <row r="87" spans="1:43">
@@ -12100,10 +12145,10 @@
         <v>1</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87">
         <v>1</v>
@@ -12139,7 +12184,7 @@
         <v>1</v>
       </c>
       <c r="AA87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB87">
         <v>1</v>
@@ -12187,7 +12232,7 @@
         <v>1</v>
       </c>
       <c r="AQ87">
-        <v>0.8634615384769231</v>
+        <v>0.9000000000166667</v>
       </c>
     </row>
     <row r="88" spans="1:43">
@@ -12231,10 +12276,10 @@
         <v>1</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P88">
         <v>1</v>
@@ -12270,7 +12315,7 @@
         <v>1</v>
       </c>
       <c r="AA88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB88">
         <v>1</v>
@@ -12318,7 +12363,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>0.8634615384769231</v>
+        <v>0.9000000000166667</v>
       </c>
     </row>
     <row r="89" spans="1:43">
@@ -12362,10 +12407,10 @@
         <v>1</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P89">
         <v>1</v>
@@ -12401,7 +12446,7 @@
         <v>1</v>
       </c>
       <c r="AA89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB89">
         <v>1</v>
@@ -12449,7 +12494,7 @@
         <v>1</v>
       </c>
       <c r="AQ89">
-        <v>0.8634615384769231</v>
+        <v>0.9000000000166667</v>
       </c>
     </row>
     <row r="90" spans="1:43">
@@ -12493,10 +12538,10 @@
         <v>1</v>
       </c>
       <c r="N90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P90">
         <v>1</v>
@@ -12532,7 +12577,7 @@
         <v>1</v>
       </c>
       <c r="AA90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB90">
         <v>1</v>
@@ -12580,7 +12625,7 @@
         <v>1</v>
       </c>
       <c r="AQ90">
-        <v>0.8634615384769231</v>
+        <v>0.9000000000166667</v>
       </c>
     </row>
     <row r="91" spans="1:43">
@@ -12624,10 +12669,10 @@
         <v>1</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91">
         <v>1</v>
@@ -12663,7 +12708,7 @@
         <v>1</v>
       </c>
       <c r="AA91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB91">
         <v>0</v>
@@ -12711,7 +12756,7 @@
         <v>1</v>
       </c>
       <c r="AQ91">
-        <v>0.8634615384769231</v>
+        <v>0.9000000000166667</v>
       </c>
     </row>
     <row r="92" spans="1:43">
@@ -12755,10 +12800,10 @@
         <v>1</v>
       </c>
       <c r="N92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P92">
         <v>1</v>
@@ -12794,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="AA92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB92">
         <v>0</v>
@@ -12842,7 +12887,7 @@
         <v>1</v>
       </c>
       <c r="AQ92">
-        <v>0.8538461538615384</v>
+        <v>0.8895833333500001</v>
       </c>
     </row>
     <row r="93" spans="1:43">
@@ -12886,10 +12931,10 @@
         <v>1</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P93">
         <v>1</v>
@@ -12925,7 +12970,7 @@
         <v>1</v>
       </c>
       <c r="AA93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB93">
         <v>0</v>
@@ -12973,7 +13018,7 @@
         <v>1</v>
       </c>
       <c r="AQ93">
-        <v>0.8538461538615384</v>
+        <v>0.8895833333500001</v>
       </c>
     </row>
     <row r="94" spans="1:43">
@@ -13017,10 +13062,10 @@
         <v>1</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P94">
         <v>1</v>
@@ -13056,7 +13101,7 @@
         <v>1</v>
       </c>
       <c r="AA94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB94">
         <v>0</v>
@@ -13104,7 +13149,7 @@
         <v>1</v>
       </c>
       <c r="AQ94">
-        <v>0.8538461538615384</v>
+        <v>0.8895833333500001</v>
       </c>
     </row>
     <row r="95" spans="1:43">
@@ -13148,10 +13193,10 @@
         <v>1</v>
       </c>
       <c r="N95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P95">
         <v>1</v>
@@ -13187,7 +13232,7 @@
         <v>1</v>
       </c>
       <c r="AA95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB95">
         <v>0</v>
@@ -13235,7 +13280,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>0.8538461538615384</v>
+        <v>0.8895833333500001</v>
       </c>
     </row>
     <row r="96" spans="1:43">
@@ -13279,10 +13324,10 @@
         <v>1</v>
       </c>
       <c r="N96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P96">
         <v>1</v>
@@ -13318,7 +13363,7 @@
         <v>1</v>
       </c>
       <c r="AA96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB96">
         <v>0</v>
@@ -13366,7 +13411,7 @@
         <v>1</v>
       </c>
       <c r="AQ96">
-        <v>0.8538461538615384</v>
+        <v>0.8895833333500001</v>
       </c>
     </row>
     <row r="97" spans="1:43">
@@ -13410,10 +13455,10 @@
         <v>1</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P97">
         <v>1</v>
@@ -13449,7 +13494,7 @@
         <v>1</v>
       </c>
       <c r="AA97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB97">
         <v>0</v>
@@ -13497,7 +13542,7 @@
         <v>1</v>
       </c>
       <c r="AQ97">
-        <v>0.8538461538615384</v>
+        <v>0.8895833333500001</v>
       </c>
     </row>
     <row r="98" spans="1:43">
@@ -13541,10 +13586,10 @@
         <v>1</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P98">
         <v>1</v>
@@ -13580,7 +13625,7 @@
         <v>1</v>
       </c>
       <c r="AA98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB98">
         <v>0</v>
@@ -13628,7 +13673,7 @@
         <v>1</v>
       </c>
       <c r="AQ98">
-        <v>0.7769230769384615</v>
+        <v>0.8062500000166666</v>
       </c>
     </row>
     <row r="99" spans="1:43">
@@ -13672,10 +13717,10 @@
         <v>1</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P99">
         <v>1</v>
@@ -13711,7 +13756,7 @@
         <v>1</v>
       </c>
       <c r="AA99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB99">
         <v>0</v>
@@ -13759,7 +13804,7 @@
         <v>1</v>
       </c>
       <c r="AQ99">
-        <v>0.7519230769384616</v>
+        <v>0.78958333335</v>
       </c>
     </row>
     <row r="100" spans="1:43">
@@ -13803,10 +13848,10 @@
         <v>1</v>
       </c>
       <c r="N100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P100">
         <v>1</v>
@@ -13842,7 +13887,7 @@
         <v>1</v>
       </c>
       <c r="AA100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB100">
         <v>0</v>
@@ -13890,7 +13935,7 @@
         <v>1</v>
       </c>
       <c r="AQ100">
-        <v>0.7519230769384616</v>
+        <v>0.78958333335</v>
       </c>
     </row>
     <row r="101" spans="1:43">
@@ -13934,10 +13979,10 @@
         <v>1</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P101">
         <v>1</v>
@@ -13973,7 +14018,7 @@
         <v>1</v>
       </c>
       <c r="AA101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB101">
         <v>0</v>
@@ -14021,7 +14066,7 @@
         <v>1</v>
       </c>
       <c r="AQ101">
-        <v>0.7519230769384616</v>
+        <v>0.78958333335</v>
       </c>
     </row>
     <row r="102" spans="1:43">
@@ -14065,10 +14110,10 @@
         <v>1</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P102">
         <v>1</v>
@@ -14104,7 +14149,7 @@
         <v>1</v>
       </c>
       <c r="AA102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB102">
         <v>0</v>
@@ -14152,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="AQ102">
-        <v>0.7519230769384616</v>
+        <v>0.78958333335</v>
       </c>
     </row>
     <row r="103" spans="1:43">
@@ -14196,10 +14241,10 @@
         <v>1</v>
       </c>
       <c r="N103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P103">
         <v>1</v>
@@ -14235,7 +14280,7 @@
         <v>1</v>
       </c>
       <c r="AA103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB103">
         <v>0</v>
@@ -14283,7 +14328,7 @@
         <v>1</v>
       </c>
       <c r="AQ103">
-        <v>0.7519230769384616</v>
+        <v>0.78958333335</v>
       </c>
     </row>
     <row r="104" spans="1:43">
@@ -14327,10 +14372,10 @@
         <v>1</v>
       </c>
       <c r="N104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P104">
         <v>1</v>
@@ -14366,7 +14411,7 @@
         <v>1</v>
       </c>
       <c r="AA104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB104">
         <v>0</v>
@@ -14414,7 +14459,7 @@
         <v>1</v>
       </c>
       <c r="AQ104">
-        <v>0.7519230769384616</v>
+        <v>0.78958333335</v>
       </c>
     </row>
     <row r="105" spans="1:43">
@@ -14458,10 +14503,10 @@
         <v>1</v>
       </c>
       <c r="N105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -14497,7 +14542,7 @@
         <v>1</v>
       </c>
       <c r="AA105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB105">
         <v>0</v>
@@ -14545,7 +14590,7 @@
         <v>1</v>
       </c>
       <c r="AQ105">
-        <v>0.713461538476923</v>
+        <v>0.7479166666833331</v>
       </c>
     </row>
     <row r="106" spans="1:43">
@@ -14589,10 +14634,10 @@
         <v>1</v>
       </c>
       <c r="N106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -14628,7 +14673,7 @@
         <v>1</v>
       </c>
       <c r="AA106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB106">
         <v>0</v>
@@ -14676,7 +14721,7 @@
         <v>1</v>
       </c>
       <c r="AQ106">
-        <v>0.713461538476923</v>
+        <v>0.7479166666833331</v>
       </c>
     </row>
     <row r="107" spans="1:43">
@@ -14720,10 +14765,10 @@
         <v>1</v>
       </c>
       <c r="N107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P107">
         <v>0</v>
@@ -14759,7 +14804,7 @@
         <v>1</v>
       </c>
       <c r="AA107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB107">
         <v>0</v>
@@ -14807,7 +14852,7 @@
         <v>1</v>
       </c>
       <c r="AQ107">
-        <v>0.713461538476923</v>
+        <v>0.7479166666833331</v>
       </c>
     </row>
     <row r="108" spans="1:43">
@@ -14851,10 +14896,10 @@
         <v>1</v>
       </c>
       <c r="N108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P108">
         <v>0</v>
@@ -14890,7 +14935,7 @@
         <v>1</v>
       </c>
       <c r="AA108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB108">
         <v>0</v>
@@ -14938,7 +14983,7 @@
         <v>1</v>
       </c>
       <c r="AQ108">
-        <v>0.713461538476923</v>
+        <v>0.7479166666833331</v>
       </c>
     </row>
     <row r="109" spans="1:43">
@@ -14982,10 +15027,10 @@
         <v>1</v>
       </c>
       <c r="N109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P109">
         <v>0</v>
@@ -15021,7 +15066,7 @@
         <v>1</v>
       </c>
       <c r="AA109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB109">
         <v>0</v>
@@ -15069,7 +15114,7 @@
         <v>1</v>
       </c>
       <c r="AQ109">
-        <v>0.6596153846307692</v>
+        <v>0.7104166666833333</v>
       </c>
     </row>
     <row r="110" spans="1:43">
@@ -15113,10 +15158,10 @@
         <v>1</v>
       </c>
       <c r="N110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P110">
         <v>0</v>
@@ -15152,7 +15197,7 @@
         <v>1</v>
       </c>
       <c r="AA110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB110">
         <v>0</v>
@@ -15200,7 +15245,7 @@
         <v>1</v>
       </c>
       <c r="AQ110">
-        <v>0.6596153846307692</v>
+        <v>0.7104166666833333</v>
       </c>
     </row>
     <row r="111" spans="1:43">
@@ -15244,10 +15289,10 @@
         <v>1</v>
       </c>
       <c r="N111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -15283,7 +15328,7 @@
         <v>1</v>
       </c>
       <c r="AA111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB111">
         <v>0</v>
@@ -15331,7 +15376,7 @@
         <v>1</v>
       </c>
       <c r="AQ111">
-        <v>0.6596153846307692</v>
+        <v>0.7104166666833333</v>
       </c>
     </row>
     <row r="112" spans="1:43">
@@ -15375,10 +15420,10 @@
         <v>1</v>
       </c>
       <c r="N112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -15414,7 +15459,7 @@
         <v>1</v>
       </c>
       <c r="AA112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB112">
         <v>0</v>
@@ -15462,7 +15507,7 @@
         <v>1</v>
       </c>
       <c r="AQ112">
-        <v>0.6403846153999998</v>
+        <v>0.6895833333499999</v>
       </c>
     </row>
     <row r="113" spans="1:43">
@@ -15506,10 +15551,10 @@
         <v>1</v>
       </c>
       <c r="N113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -15545,7 +15590,7 @@
         <v>1</v>
       </c>
       <c r="AA113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB113">
         <v>0</v>
@@ -15593,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="AQ113">
-        <v>0.5799450549538461</v>
+        <v>0.6241071428666665</v>
       </c>
     </row>
     <row r="114" spans="1:43">
@@ -15637,10 +15682,10 @@
         <v>1</v>
       </c>
       <c r="N114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -15676,7 +15721,7 @@
         <v>1</v>
       </c>
       <c r="AA114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB114">
         <v>0</v>
@@ -15724,7 +15769,7 @@
         <v>0</v>
       </c>
       <c r="AQ114">
-        <v>0.5799450549538461</v>
+        <v>0.6241071428666665</v>
       </c>
     </row>
     <row r="115" spans="1:43">
@@ -15768,10 +15813,10 @@
         <v>1</v>
       </c>
       <c r="N115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -15807,7 +15852,7 @@
         <v>1</v>
       </c>
       <c r="AA115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB115">
         <v>0</v>
@@ -15855,7 +15900,7 @@
         <v>0</v>
       </c>
       <c r="AQ115">
-        <v>0.5799450549538461</v>
+        <v>0.6241071428666665</v>
       </c>
     </row>
     <row r="116" spans="1:43">
@@ -15899,10 +15944,10 @@
         <v>1</v>
       </c>
       <c r="N116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -15938,7 +15983,7 @@
         <v>1</v>
       </c>
       <c r="AA116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB116">
         <v>0</v>
@@ -15986,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="AQ116">
-        <v>0.5799450549538461</v>
+        <v>0.6241071428666665</v>
       </c>
     </row>
     <row r="117" spans="1:43">
@@ -16030,10 +16075,10 @@
         <v>1</v>
       </c>
       <c r="N117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -16069,7 +16114,7 @@
         <v>1</v>
       </c>
       <c r="AA117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB117">
         <v>0</v>
@@ -16117,7 +16162,7 @@
         <v>0</v>
       </c>
       <c r="AQ117">
-        <v>0.5799450549538461</v>
+        <v>0.6241071428666665</v>
       </c>
     </row>
     <row r="118" spans="1:43">
@@ -16161,10 +16206,10 @@
         <v>1</v>
       </c>
       <c r="N118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -16200,7 +16245,7 @@
         <v>1</v>
       </c>
       <c r="AA118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB118">
         <v>0</v>
@@ -16248,7 +16293,7 @@
         <v>0</v>
       </c>
       <c r="AQ118">
-        <v>0.5799450549538461</v>
+        <v>0.6241071428666665</v>
       </c>
     </row>
     <row r="119" spans="1:43">
@@ -16292,10 +16337,10 @@
         <v>1</v>
       </c>
       <c r="N119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P119">
         <v>0</v>
@@ -16331,7 +16376,7 @@
         <v>1</v>
       </c>
       <c r="AA119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB119">
         <v>0</v>
@@ -16379,7 +16424,7 @@
         <v>0</v>
       </c>
       <c r="AQ119">
-        <v>0.5799450549538461</v>
+        <v>0.6241071428666665</v>
       </c>
     </row>
     <row r="120" spans="1:43">
@@ -16423,10 +16468,10 @@
         <v>1</v>
       </c>
       <c r="N120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P120">
         <v>0</v>
@@ -16462,7 +16507,7 @@
         <v>1</v>
       </c>
       <c r="AA120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB120">
         <v>0</v>
@@ -16510,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="AQ120">
-        <v>0.5799450549538461</v>
+        <v>0.6241071428666665</v>
       </c>
     </row>
     <row r="121" spans="1:43">
@@ -16554,10 +16599,10 @@
         <v>1</v>
       </c>
       <c r="N121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -16593,7 +16638,7 @@
         <v>1</v>
       </c>
       <c r="AA121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB121">
         <v>0</v>
@@ -16641,7 +16686,7 @@
         <v>0</v>
       </c>
       <c r="AQ121">
-        <v>0.5799450549538461</v>
+        <v>0.6241071428666665</v>
       </c>
     </row>
     <row r="122" spans="1:43">
@@ -16685,10 +16730,10 @@
         <v>1</v>
       </c>
       <c r="N122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -16724,7 +16769,7 @@
         <v>1</v>
       </c>
       <c r="AA122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB122">
         <v>0</v>
@@ -16772,7 +16817,7 @@
         <v>0</v>
       </c>
       <c r="AQ122">
-        <v>0.5799450549538461</v>
+        <v>0.6241071428666665</v>
       </c>
     </row>
     <row r="123" spans="1:43">
@@ -16816,10 +16861,10 @@
         <v>1</v>
       </c>
       <c r="N123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P123">
         <v>0</v>
@@ -16855,7 +16900,7 @@
         <v>0</v>
       </c>
       <c r="AA123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB123">
         <v>0</v>
@@ -16903,7 +16948,7 @@
         <v>0</v>
       </c>
       <c r="AQ123">
-        <v>0.5329670329692306</v>
+        <v>0.5836309523833333</v>
       </c>
     </row>
     <row r="124" spans="1:43">
@@ -16947,10 +16992,10 @@
         <v>1</v>
       </c>
       <c r="N124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P124">
         <v>0</v>
@@ -16986,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="AA124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB124">
         <v>0</v>
@@ -17034,7 +17079,7 @@
         <v>0</v>
       </c>
       <c r="AQ124">
-        <v>0.5329670329692306</v>
+        <v>0.5836309523833333</v>
       </c>
     </row>
     <row r="125" spans="1:43">
@@ -17078,10 +17123,10 @@
         <v>1</v>
       </c>
       <c r="N125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -17117,7 +17162,7 @@
         <v>0</v>
       </c>
       <c r="AA125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB125">
         <v>0</v>
@@ -17165,7 +17210,7 @@
         <v>0</v>
       </c>
       <c r="AQ125">
-        <v>0.5329670329692306</v>
+        <v>0.5836309523833333</v>
       </c>
     </row>
     <row r="126" spans="1:43">
@@ -17209,10 +17254,10 @@
         <v>1</v>
       </c>
       <c r="N126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P126">
         <v>0</v>
@@ -17248,7 +17293,7 @@
         <v>0</v>
       </c>
       <c r="AA126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB126">
         <v>0</v>
@@ -17296,7 +17341,7 @@
         <v>0</v>
       </c>
       <c r="AQ126">
-        <v>0.5329670329692306</v>
+        <v>0.5836309523833333</v>
       </c>
     </row>
     <row r="127" spans="1:43">
@@ -17340,10 +17385,10 @@
         <v>1</v>
       </c>
       <c r="N127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -17379,7 +17424,7 @@
         <v>0</v>
       </c>
       <c r="AA127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB127">
         <v>0</v>
@@ -17427,7 +17472,7 @@
         <v>0</v>
       </c>
       <c r="AQ127">
-        <v>0.5041208791230768</v>
+        <v>0.5732142857166665</v>
       </c>
     </row>
     <row r="128" spans="1:43">
@@ -17471,10 +17516,10 @@
         <v>1</v>
       </c>
       <c r="N128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P128">
         <v>0</v>
@@ -17510,7 +17555,7 @@
         <v>0</v>
       </c>
       <c r="AA128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB128">
         <v>0</v>
@@ -17558,7 +17603,7 @@
         <v>0</v>
       </c>
       <c r="AQ128">
-        <v>0.5041208791230768</v>
+        <v>0.5732142857166665</v>
       </c>
     </row>
     <row r="129" spans="1:43">
@@ -17602,10 +17647,10 @@
         <v>1</v>
       </c>
       <c r="N129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P129">
         <v>0</v>
@@ -17641,7 +17686,7 @@
         <v>0</v>
       </c>
       <c r="AA129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB129">
         <v>0</v>
@@ -17689,7 +17734,7 @@
         <v>0</v>
       </c>
       <c r="AQ129">
-        <v>0.5041208791230768</v>
+        <v>0.5732142857166665</v>
       </c>
     </row>
     <row r="130" spans="1:43">
@@ -17733,10 +17778,10 @@
         <v>1</v>
       </c>
       <c r="N130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P130">
         <v>0</v>
@@ -17772,7 +17817,7 @@
         <v>0</v>
       </c>
       <c r="AA130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB130">
         <v>0</v>
@@ -17820,7 +17865,7 @@
         <v>0</v>
       </c>
       <c r="AQ130">
-        <v>0.5041208791230768</v>
+        <v>0.5732142857166665</v>
       </c>
     </row>
     <row r="131" spans="1:43">
@@ -17864,10 +17909,10 @@
         <v>1</v>
       </c>
       <c r="N131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P131">
         <v>0</v>
@@ -17903,7 +17948,7 @@
         <v>0</v>
       </c>
       <c r="AA131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB131">
         <v>0</v>
@@ -17951,7 +17996,7 @@
         <v>0</v>
       </c>
       <c r="AQ131">
-        <v>0.5041208791230768</v>
+        <v>0.5732142857166665</v>
       </c>
     </row>
     <row r="132" spans="1:43">
@@ -17995,10 +18040,10 @@
         <v>1</v>
       </c>
       <c r="N132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P132">
         <v>0</v>
@@ -18034,7 +18079,7 @@
         <v>0</v>
       </c>
       <c r="AA132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB132">
         <v>0</v>
@@ -18082,7 +18127,7 @@
         <v>0</v>
       </c>
       <c r="AQ132">
-        <v>0.5041208791230768</v>
+        <v>0.5732142857166665</v>
       </c>
     </row>
     <row r="133" spans="1:43">
@@ -18126,10 +18171,10 @@
         <v>1</v>
       </c>
       <c r="N133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P133">
         <v>0</v>
@@ -18165,7 +18210,7 @@
         <v>0</v>
       </c>
       <c r="AA133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB133">
         <v>0</v>
@@ -18213,7 +18258,7 @@
         <v>0</v>
       </c>
       <c r="AQ133">
-        <v>0.5041208791230768</v>
+        <v>0.5732142857166665</v>
       </c>
     </row>
     <row r="134" spans="1:43">
@@ -18257,10 +18302,10 @@
         <v>1</v>
       </c>
       <c r="N134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134">
         <v>0</v>
@@ -18296,7 +18341,7 @@
         <v>0</v>
       </c>
       <c r="AA134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB134">
         <v>0</v>
@@ -18344,7 +18389,7 @@
         <v>0</v>
       </c>
       <c r="AQ134">
-        <v>0.5041208791230768</v>
+        <v>0.5732142857166665</v>
       </c>
     </row>
     <row r="135" spans="1:43">
@@ -18388,10 +18433,10 @@
         <v>1</v>
       </c>
       <c r="N135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P135">
         <v>0</v>
@@ -18427,7 +18472,7 @@
         <v>0</v>
       </c>
       <c r="AA135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB135">
         <v>0</v>
@@ -18475,7 +18520,7 @@
         <v>0</v>
       </c>
       <c r="AQ135">
-        <v>0.5041208791230768</v>
+        <v>0.5732142857166665</v>
       </c>
     </row>
     <row r="136" spans="1:43">
@@ -18519,10 +18564,10 @@
         <v>1</v>
       </c>
       <c r="N136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P136">
         <v>0</v>
@@ -18558,7 +18603,7 @@
         <v>0</v>
       </c>
       <c r="AA136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB136">
         <v>0</v>
@@ -18606,7 +18651,7 @@
         <v>0</v>
       </c>
       <c r="AQ136">
-        <v>0.5041208791230768</v>
+        <v>0.5732142857166665</v>
       </c>
     </row>
     <row r="137" spans="1:43">
@@ -18650,10 +18695,10 @@
         <v>1</v>
       </c>
       <c r="N137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P137">
         <v>0</v>
@@ -18689,7 +18734,7 @@
         <v>0</v>
       </c>
       <c r="AA137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB137">
         <v>0</v>
@@ -18737,7 +18782,7 @@
         <v>0</v>
       </c>
       <c r="AQ137">
-        <v>0.4711538461461538</v>
+        <v>0.5374999999916666</v>
       </c>
     </row>
     <row r="138" spans="1:43">
@@ -18781,10 +18826,10 @@
         <v>1</v>
       </c>
       <c r="N138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P138">
         <v>0</v>
@@ -18820,7 +18865,7 @@
         <v>0</v>
       </c>
       <c r="AA138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB138">
         <v>0</v>
@@ -18868,7 +18913,7 @@
         <v>0</v>
       </c>
       <c r="AQ138">
-        <v>0.4711538461461538</v>
+        <v>0.5374999999916666</v>
       </c>
     </row>
     <row r="139" spans="1:43">
@@ -18912,10 +18957,10 @@
         <v>1</v>
       </c>
       <c r="N139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P139">
         <v>0</v>
@@ -18951,7 +18996,7 @@
         <v>0</v>
       </c>
       <c r="AA139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB139">
         <v>0</v>
@@ -18999,7 +19044,7 @@
         <v>0</v>
       </c>
       <c r="AQ139">
-        <v>0.4711538461461538</v>
+        <v>0.5374999999916666</v>
       </c>
     </row>
     <row r="140" spans="1:43">
@@ -19043,10 +19088,10 @@
         <v>1</v>
       </c>
       <c r="N140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P140">
         <v>0</v>
@@ -19082,7 +19127,7 @@
         <v>0</v>
       </c>
       <c r="AA140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB140">
         <v>0</v>
@@ -19130,7 +19175,7 @@
         <v>0</v>
       </c>
       <c r="AQ140">
-        <v>0.4711538461461538</v>
+        <v>0.5374999999916666</v>
       </c>
     </row>
     <row r="141" spans="1:43">
@@ -19174,7 +19219,7 @@
         <v>1</v>
       </c>
       <c r="N141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O141">
         <v>0</v>
@@ -19213,7 +19258,7 @@
         <v>0</v>
       </c>
       <c r="AA141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB141">
         <v>0</v>
@@ -19261,7 +19306,7 @@
         <v>0</v>
       </c>
       <c r="AQ141">
-        <v>0.4711538461461538</v>
+        <v>0.5208333333249999</v>
       </c>
     </row>
     <row r="142" spans="1:43">
@@ -19305,7 +19350,7 @@
         <v>1</v>
       </c>
       <c r="N142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O142">
         <v>0</v>
@@ -19344,7 +19389,7 @@
         <v>0</v>
       </c>
       <c r="AA142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB142">
         <v>0</v>
@@ -19392,7 +19437,7 @@
         <v>0</v>
       </c>
       <c r="AQ142">
-        <v>0.4711538461461538</v>
+        <v>0.5208333333249999</v>
       </c>
     </row>
     <row r="143" spans="1:43">
@@ -19436,7 +19481,7 @@
         <v>1</v>
       </c>
       <c r="N143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O143">
         <v>0</v>
@@ -19475,7 +19520,7 @@
         <v>0</v>
       </c>
       <c r="AA143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB143">
         <v>0</v>
@@ -19523,7 +19568,7 @@
         <v>0</v>
       </c>
       <c r="AQ143">
-        <v>0.4711538461461538</v>
+        <v>0.5208333333249999</v>
       </c>
     </row>
     <row r="144" spans="1:43">
@@ -19567,7 +19612,7 @@
         <v>1</v>
       </c>
       <c r="N144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O144">
         <v>0</v>
@@ -19606,7 +19651,7 @@
         <v>0</v>
       </c>
       <c r="AA144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB144">
         <v>0</v>
@@ -19654,7 +19699,7 @@
         <v>0</v>
       </c>
       <c r="AQ144">
-        <v>0.4711538461461538</v>
+        <v>0.5208333333249999</v>
       </c>
     </row>
     <row r="145" spans="1:43">
@@ -19698,7 +19743,7 @@
         <v>1</v>
       </c>
       <c r="N145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O145">
         <v>0</v>
@@ -19737,7 +19782,7 @@
         <v>0</v>
       </c>
       <c r="AA145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB145">
         <v>0</v>
@@ -19785,7 +19830,7 @@
         <v>0</v>
       </c>
       <c r="AQ145">
-        <v>0.4711538461461538</v>
+        <v>0.5208333333249999</v>
       </c>
     </row>
     <row r="146" spans="1:43">
@@ -19829,7 +19874,7 @@
         <v>1</v>
       </c>
       <c r="N146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O146">
         <v>0</v>
@@ -19868,7 +19913,7 @@
         <v>0</v>
       </c>
       <c r="AA146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB146">
         <v>0</v>
@@ -19916,7 +19961,7 @@
         <v>0</v>
       </c>
       <c r="AQ146">
-        <v>0.4711538461461538</v>
+        <v>0.5208333333249999</v>
       </c>
     </row>
     <row r="147" spans="1:43">
@@ -19960,7 +20005,7 @@
         <v>1</v>
       </c>
       <c r="N147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O147">
         <v>0</v>
@@ -19999,7 +20044,7 @@
         <v>0</v>
       </c>
       <c r="AA147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB147">
         <v>0</v>
@@ -20047,7 +20092,7 @@
         <v>0</v>
       </c>
       <c r="AQ147">
-        <v>0.4711538461461538</v>
+        <v>0.5208333333249999</v>
       </c>
     </row>
     <row r="148" spans="1:43">
@@ -20091,7 +20136,7 @@
         <v>1</v>
       </c>
       <c r="N148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O148">
         <v>0</v>
@@ -20130,7 +20175,7 @@
         <v>0</v>
       </c>
       <c r="AA148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB148">
         <v>0</v>
@@ -20178,7 +20223,7 @@
         <v>0</v>
       </c>
       <c r="AQ148">
-        <v>0.4711538461461538</v>
+        <v>0.5208333333249999</v>
       </c>
     </row>
     <row r="149" spans="1:43">
@@ -20222,7 +20267,7 @@
         <v>1</v>
       </c>
       <c r="N149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O149">
         <v>0</v>
@@ -20261,7 +20306,7 @@
         <v>0</v>
       </c>
       <c r="AA149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB149">
         <v>0</v>
@@ -20309,7 +20354,7 @@
         <v>0</v>
       </c>
       <c r="AQ149">
-        <v>0.4711538461461538</v>
+        <v>0.5208333333249999</v>
       </c>
     </row>
     <row r="150" spans="1:43">
@@ -20353,7 +20398,7 @@
         <v>1</v>
       </c>
       <c r="N150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O150">
         <v>0</v>
@@ -20392,7 +20437,7 @@
         <v>0</v>
       </c>
       <c r="AA150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB150">
         <v>0</v>
@@ -20440,7 +20485,7 @@
         <v>0</v>
       </c>
       <c r="AQ150">
-        <v>0.4711538461461538</v>
+        <v>0.5208333333249999</v>
       </c>
     </row>
     <row r="151" spans="1:43">
@@ -20571,7 +20616,7 @@
         <v>0</v>
       </c>
       <c r="AQ151">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="152" spans="1:43">
@@ -20702,7 +20747,7 @@
         <v>0</v>
       </c>
       <c r="AQ152">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="153" spans="1:43">
@@ -20833,7 +20878,7 @@
         <v>0</v>
       </c>
       <c r="AQ153">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="154" spans="1:43">
@@ -20964,7 +21009,7 @@
         <v>0</v>
       </c>
       <c r="AQ154">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="155" spans="1:43">
@@ -21095,7 +21140,7 @@
         <v>0</v>
       </c>
       <c r="AQ155">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="156" spans="1:43">
@@ -21226,7 +21271,7 @@
         <v>0</v>
       </c>
       <c r="AQ156">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="157" spans="1:43">
@@ -21357,7 +21402,7 @@
         <v>0</v>
       </c>
       <c r="AQ157">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="158" spans="1:43">
@@ -21488,7 +21533,7 @@
         <v>0</v>
       </c>
       <c r="AQ158">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="159" spans="1:43">
@@ -21619,7 +21664,7 @@
         <v>0</v>
       </c>
       <c r="AQ159">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="160" spans="1:43">
@@ -21750,7 +21795,7 @@
         <v>0</v>
       </c>
       <c r="AQ160">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="161" spans="1:43">
@@ -21881,7 +21926,7 @@
         <v>0</v>
       </c>
       <c r="AQ161">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="162" spans="1:43">
@@ -22012,7 +22057,7 @@
         <v>0</v>
       </c>
       <c r="AQ162">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="163" spans="1:43">
@@ -22143,7 +22188,7 @@
         <v>0</v>
       </c>
       <c r="AQ163">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="164" spans="1:43">
@@ -22274,7 +22319,7 @@
         <v>0</v>
       </c>
       <c r="AQ164">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="165" spans="1:43">
@@ -22405,7 +22450,7 @@
         <v>0</v>
       </c>
       <c r="AQ165">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="166" spans="1:43">
@@ -22536,7 +22581,7 @@
         <v>0</v>
       </c>
       <c r="AQ166">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="167" spans="1:43">
@@ -22667,7 +22712,7 @@
         <v>0</v>
       </c>
       <c r="AQ167">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="168" spans="1:43">
@@ -22798,7 +22843,7 @@
         <v>0</v>
       </c>
       <c r="AQ168">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="169" spans="1:43">
@@ -22929,7 +22974,7 @@
         <v>0</v>
       </c>
       <c r="AQ169">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="170" spans="1:43">
@@ -23060,7 +23105,7 @@
         <v>0</v>
       </c>
       <c r="AQ170">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="171" spans="1:43">
@@ -23191,7 +23236,7 @@
         <v>0</v>
       </c>
       <c r="AQ171">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="172" spans="1:43">
@@ -23322,7 +23367,7 @@
         <v>0</v>
       </c>
       <c r="AQ172">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="173" spans="1:43">
@@ -23453,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="AQ173">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="174" spans="1:43">
@@ -23584,7 +23629,7 @@
         <v>0</v>
       </c>
       <c r="AQ174">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="175" spans="1:43">
@@ -23715,7 +23760,7 @@
         <v>0</v>
       </c>
       <c r="AQ175">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="176" spans="1:43">
@@ -23846,7 +23891,7 @@
         <v>0</v>
       </c>
       <c r="AQ176">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="177" spans="1:43">
@@ -23977,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="AQ177">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="178" spans="1:43">
@@ -24108,7 +24153,7 @@
         <v>0</v>
       </c>
       <c r="AQ178">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="179" spans="1:43">
@@ -24239,7 +24284,7 @@
         <v>0</v>
       </c>
       <c r="AQ179">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="180" spans="1:43">
@@ -24370,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="AQ180">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="181" spans="1:43">
@@ -24501,7 +24546,7 @@
         <v>0</v>
       </c>
       <c r="AQ181">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="182" spans="1:43">
@@ -24632,7 +24677,7 @@
         <v>0</v>
       </c>
       <c r="AQ182">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="183" spans="1:43">
@@ -24763,7 +24808,7 @@
         <v>0</v>
       </c>
       <c r="AQ183">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="184" spans="1:43">
@@ -24894,7 +24939,7 @@
         <v>0</v>
       </c>
       <c r="AQ184">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="185" spans="1:43">
@@ -25025,7 +25070,7 @@
         <v>0</v>
       </c>
       <c r="AQ185">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="186" spans="1:43">
@@ -25156,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="AQ186">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="187" spans="1:43">
@@ -25287,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="AQ187">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="188" spans="1:43">
@@ -25418,7 +25463,7 @@
         <v>0</v>
       </c>
       <c r="AQ188">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="189" spans="1:43">
@@ -25549,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="AQ189">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="190" spans="1:43">
@@ -25680,7 +25725,7 @@
         <v>0</v>
       </c>
       <c r="AQ190">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="191" spans="1:43">
@@ -25811,7 +25856,7 @@
         <v>0</v>
       </c>
       <c r="AQ191">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="192" spans="1:43">
@@ -25942,7 +25987,7 @@
         <v>0</v>
       </c>
       <c r="AQ192">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="193" spans="1:43">
@@ -26073,7 +26118,7 @@
         <v>0</v>
       </c>
       <c r="AQ193">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="194" spans="1:43">
@@ -26204,7 +26249,7 @@
         <v>0</v>
       </c>
       <c r="AQ194">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="195" spans="1:43">
@@ -26335,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="AQ195">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="196" spans="1:43">
@@ -26466,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="AQ196">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="197" spans="1:43">
@@ -26597,7 +26642,7 @@
         <v>0</v>
       </c>
       <c r="AQ197">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="198" spans="1:43">
@@ -26728,7 +26773,7 @@
         <v>0</v>
       </c>
       <c r="AQ198">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="199" spans="1:43">
@@ -26859,7 +26904,7 @@
         <v>0</v>
       </c>
       <c r="AQ199">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="200" spans="1:43">
@@ -26990,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="AQ200">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="201" spans="1:43">
@@ -27121,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="AQ201">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="202" spans="1:43">
@@ -27252,7 +27297,7 @@
         <v>0</v>
       </c>
       <c r="AQ202">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="203" spans="1:43">
@@ -27383,7 +27428,7 @@
         <v>0</v>
       </c>
       <c r="AQ203">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="204" spans="1:43">
@@ -27514,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="AQ204">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="205" spans="1:43">
@@ -27645,7 +27690,7 @@
         <v>0</v>
       </c>
       <c r="AQ205">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="206" spans="1:43">
@@ -27776,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="AQ206">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="207" spans="1:43">
@@ -27907,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="AQ207">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="208" spans="1:43">
@@ -28038,7 +28083,7 @@
         <v>0</v>
       </c>
       <c r="AQ208">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="209" spans="1:43">
@@ -28169,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="AQ209">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="210" spans="1:43">
@@ -28300,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="AQ210">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="211" spans="1:43">
@@ -28431,7 +28476,7 @@
         <v>0</v>
       </c>
       <c r="AQ211">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="212" spans="1:43">
@@ -28562,7 +28607,7 @@
         <v>0</v>
       </c>
       <c r="AQ212">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="213" spans="1:43">
@@ -28693,7 +28738,7 @@
         <v>0</v>
       </c>
       <c r="AQ213">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="214" spans="1:43">
@@ -28824,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="AQ214">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="215" spans="1:43">
@@ -28955,7 +29000,7 @@
         <v>0</v>
       </c>
       <c r="AQ215">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="216" spans="1:43">
@@ -29086,7 +29131,7 @@
         <v>0</v>
       </c>
       <c r="AQ216">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="217" spans="1:43">
@@ -29217,7 +29262,7 @@
         <v>0</v>
       </c>
       <c r="AQ217">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="218" spans="1:43">
@@ -29348,7 +29393,7 @@
         <v>0</v>
       </c>
       <c r="AQ218">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="219" spans="1:43">
@@ -29479,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="AQ219">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="220" spans="1:43">
@@ -29610,7 +29655,7 @@
         <v>0</v>
       </c>
       <c r="AQ220">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
       </c>
     </row>
     <row r="221" spans="1:43">
@@ -29741,7 +29786,1579 @@
         <v>0</v>
       </c>
       <c r="AQ221">
-        <v>0.3557692307615384</v>
+        <v>0.3854166666583334</v>
+      </c>
+    </row>
+    <row r="222" spans="1:43">
+      <c r="A222" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>1</v>
+      </c>
+      <c r="AD222">
+        <v>1</v>
+      </c>
+      <c r="AE222">
+        <v>1</v>
+      </c>
+      <c r="AF222">
+        <v>1</v>
+      </c>
+      <c r="AG222">
+        <v>1</v>
+      </c>
+      <c r="AH222">
+        <v>1</v>
+      </c>
+      <c r="AI222">
+        <v>0</v>
+      </c>
+      <c r="AJ222">
+        <v>0</v>
+      </c>
+      <c r="AK222">
+        <v>0</v>
+      </c>
+      <c r="AL222">
+        <v>0</v>
+      </c>
+      <c r="AM222">
+        <v>0</v>
+      </c>
+      <c r="AN222">
+        <v>0</v>
+      </c>
+      <c r="AO222">
+        <v>0</v>
+      </c>
+      <c r="AP222">
+        <v>0</v>
+      </c>
+      <c r="AQ222">
+        <v>0.3854166666583334</v>
+      </c>
+    </row>
+    <row r="223" spans="1:43">
+      <c r="A223" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
+      <c r="AC223">
+        <v>1</v>
+      </c>
+      <c r="AD223">
+        <v>1</v>
+      </c>
+      <c r="AE223">
+        <v>1</v>
+      </c>
+      <c r="AF223">
+        <v>1</v>
+      </c>
+      <c r="AG223">
+        <v>1</v>
+      </c>
+      <c r="AH223">
+        <v>1</v>
+      </c>
+      <c r="AI223">
+        <v>0</v>
+      </c>
+      <c r="AJ223">
+        <v>0</v>
+      </c>
+      <c r="AK223">
+        <v>0</v>
+      </c>
+      <c r="AL223">
+        <v>0</v>
+      </c>
+      <c r="AM223">
+        <v>0</v>
+      </c>
+      <c r="AN223">
+        <v>0</v>
+      </c>
+      <c r="AO223">
+        <v>0</v>
+      </c>
+      <c r="AP223">
+        <v>0</v>
+      </c>
+      <c r="AQ223">
+        <v>0.3854166666583334</v>
+      </c>
+    </row>
+    <row r="224" spans="1:43">
+      <c r="A224" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>1</v>
+      </c>
+      <c r="AD224">
+        <v>1</v>
+      </c>
+      <c r="AE224">
+        <v>1</v>
+      </c>
+      <c r="AF224">
+        <v>1</v>
+      </c>
+      <c r="AG224">
+        <v>1</v>
+      </c>
+      <c r="AH224">
+        <v>1</v>
+      </c>
+      <c r="AI224">
+        <v>0</v>
+      </c>
+      <c r="AJ224">
+        <v>0</v>
+      </c>
+      <c r="AK224">
+        <v>0</v>
+      </c>
+      <c r="AL224">
+        <v>0</v>
+      </c>
+      <c r="AM224">
+        <v>0</v>
+      </c>
+      <c r="AN224">
+        <v>0</v>
+      </c>
+      <c r="AO224">
+        <v>0</v>
+      </c>
+      <c r="AP224">
+        <v>0</v>
+      </c>
+      <c r="AQ224">
+        <v>0.3854166666583334</v>
+      </c>
+    </row>
+    <row r="225" spans="1:43">
+      <c r="A225" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>1</v>
+      </c>
+      <c r="AD225">
+        <v>1</v>
+      </c>
+      <c r="AE225">
+        <v>1</v>
+      </c>
+      <c r="AF225">
+        <v>1</v>
+      </c>
+      <c r="AG225">
+        <v>1</v>
+      </c>
+      <c r="AH225">
+        <v>1</v>
+      </c>
+      <c r="AI225">
+        <v>0</v>
+      </c>
+      <c r="AJ225">
+        <v>0</v>
+      </c>
+      <c r="AK225">
+        <v>0</v>
+      </c>
+      <c r="AL225">
+        <v>0</v>
+      </c>
+      <c r="AM225">
+        <v>0</v>
+      </c>
+      <c r="AN225">
+        <v>0</v>
+      </c>
+      <c r="AO225">
+        <v>0</v>
+      </c>
+      <c r="AP225">
+        <v>0</v>
+      </c>
+      <c r="AQ225">
+        <v>0.3854166666583334</v>
+      </c>
+    </row>
+    <row r="226" spans="1:43">
+      <c r="A226" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
+      <c r="AC226">
+        <v>1</v>
+      </c>
+      <c r="AD226">
+        <v>1</v>
+      </c>
+      <c r="AE226">
+        <v>1</v>
+      </c>
+      <c r="AF226">
+        <v>1</v>
+      </c>
+      <c r="AG226">
+        <v>1</v>
+      </c>
+      <c r="AH226">
+        <v>1</v>
+      </c>
+      <c r="AI226">
+        <v>0</v>
+      </c>
+      <c r="AJ226">
+        <v>0</v>
+      </c>
+      <c r="AK226">
+        <v>0</v>
+      </c>
+      <c r="AL226">
+        <v>0</v>
+      </c>
+      <c r="AM226">
+        <v>0</v>
+      </c>
+      <c r="AN226">
+        <v>0</v>
+      </c>
+      <c r="AO226">
+        <v>0</v>
+      </c>
+      <c r="AP226">
+        <v>0</v>
+      </c>
+      <c r="AQ226">
+        <v>0.3854166666583334</v>
+      </c>
+    </row>
+    <row r="227" spans="1:43">
+      <c r="A227" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+      <c r="AC227">
+        <v>1</v>
+      </c>
+      <c r="AD227">
+        <v>1</v>
+      </c>
+      <c r="AE227">
+        <v>1</v>
+      </c>
+      <c r="AF227">
+        <v>1</v>
+      </c>
+      <c r="AG227">
+        <v>1</v>
+      </c>
+      <c r="AH227">
+        <v>1</v>
+      </c>
+      <c r="AI227">
+        <v>0</v>
+      </c>
+      <c r="AJ227">
+        <v>0</v>
+      </c>
+      <c r="AK227">
+        <v>0</v>
+      </c>
+      <c r="AL227">
+        <v>0</v>
+      </c>
+      <c r="AM227">
+        <v>0</v>
+      </c>
+      <c r="AN227">
+        <v>0</v>
+      </c>
+      <c r="AO227">
+        <v>0</v>
+      </c>
+      <c r="AP227">
+        <v>0</v>
+      </c>
+      <c r="AQ227">
+        <v>0.3854166666583334</v>
+      </c>
+    </row>
+    <row r="228" spans="1:43">
+      <c r="A228" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>1</v>
+      </c>
+      <c r="AD228">
+        <v>1</v>
+      </c>
+      <c r="AE228">
+        <v>1</v>
+      </c>
+      <c r="AF228">
+        <v>1</v>
+      </c>
+      <c r="AG228">
+        <v>1</v>
+      </c>
+      <c r="AH228">
+        <v>1</v>
+      </c>
+      <c r="AI228">
+        <v>0</v>
+      </c>
+      <c r="AJ228">
+        <v>0</v>
+      </c>
+      <c r="AK228">
+        <v>0</v>
+      </c>
+      <c r="AL228">
+        <v>0</v>
+      </c>
+      <c r="AM228">
+        <v>0</v>
+      </c>
+      <c r="AN228">
+        <v>0</v>
+      </c>
+      <c r="AO228">
+        <v>0</v>
+      </c>
+      <c r="AP228">
+        <v>0</v>
+      </c>
+      <c r="AQ228">
+        <v>0.3854166666583334</v>
+      </c>
+    </row>
+    <row r="229" spans="1:43">
+      <c r="A229" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+      <c r="AC229">
+        <v>1</v>
+      </c>
+      <c r="AD229">
+        <v>1</v>
+      </c>
+      <c r="AE229">
+        <v>1</v>
+      </c>
+      <c r="AF229">
+        <v>1</v>
+      </c>
+      <c r="AG229">
+        <v>1</v>
+      </c>
+      <c r="AH229">
+        <v>1</v>
+      </c>
+      <c r="AI229">
+        <v>0</v>
+      </c>
+      <c r="AJ229">
+        <v>0</v>
+      </c>
+      <c r="AK229">
+        <v>0</v>
+      </c>
+      <c r="AL229">
+        <v>0</v>
+      </c>
+      <c r="AM229">
+        <v>0</v>
+      </c>
+      <c r="AN229">
+        <v>0</v>
+      </c>
+      <c r="AO229">
+        <v>0</v>
+      </c>
+      <c r="AP229">
+        <v>0</v>
+      </c>
+      <c r="AQ229">
+        <v>0.3854166666583334</v>
+      </c>
+    </row>
+    <row r="230" spans="1:43">
+      <c r="A230" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>1</v>
+      </c>
+      <c r="AD230">
+        <v>1</v>
+      </c>
+      <c r="AE230">
+        <v>1</v>
+      </c>
+      <c r="AF230">
+        <v>1</v>
+      </c>
+      <c r="AG230">
+        <v>1</v>
+      </c>
+      <c r="AH230">
+        <v>1</v>
+      </c>
+      <c r="AI230">
+        <v>0</v>
+      </c>
+      <c r="AJ230">
+        <v>0</v>
+      </c>
+      <c r="AK230">
+        <v>0</v>
+      </c>
+      <c r="AL230">
+        <v>0</v>
+      </c>
+      <c r="AM230">
+        <v>0</v>
+      </c>
+      <c r="AN230">
+        <v>0</v>
+      </c>
+      <c r="AO230">
+        <v>0</v>
+      </c>
+      <c r="AP230">
+        <v>0</v>
+      </c>
+      <c r="AQ230">
+        <v>0.3854166666583334</v>
+      </c>
+    </row>
+    <row r="231" spans="1:43">
+      <c r="A231" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>1</v>
+      </c>
+      <c r="AD231">
+        <v>1</v>
+      </c>
+      <c r="AE231">
+        <v>1</v>
+      </c>
+      <c r="AF231">
+        <v>1</v>
+      </c>
+      <c r="AG231">
+        <v>1</v>
+      </c>
+      <c r="AH231">
+        <v>1</v>
+      </c>
+      <c r="AI231">
+        <v>0</v>
+      </c>
+      <c r="AJ231">
+        <v>0</v>
+      </c>
+      <c r="AK231">
+        <v>0</v>
+      </c>
+      <c r="AL231">
+        <v>0</v>
+      </c>
+      <c r="AM231">
+        <v>0</v>
+      </c>
+      <c r="AN231">
+        <v>0</v>
+      </c>
+      <c r="AO231">
+        <v>0</v>
+      </c>
+      <c r="AP231">
+        <v>0</v>
+      </c>
+      <c r="AQ231">
+        <v>0.3854166666583334</v>
+      </c>
+    </row>
+    <row r="232" spans="1:43">
+      <c r="A232" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>1</v>
+      </c>
+      <c r="AD232">
+        <v>1</v>
+      </c>
+      <c r="AE232">
+        <v>1</v>
+      </c>
+      <c r="AF232">
+        <v>1</v>
+      </c>
+      <c r="AG232">
+        <v>1</v>
+      </c>
+      <c r="AH232">
+        <v>1</v>
+      </c>
+      <c r="AI232">
+        <v>0</v>
+      </c>
+      <c r="AJ232">
+        <v>0</v>
+      </c>
+      <c r="AK232">
+        <v>0</v>
+      </c>
+      <c r="AL232">
+        <v>0</v>
+      </c>
+      <c r="AM232">
+        <v>0</v>
+      </c>
+      <c r="AN232">
+        <v>0</v>
+      </c>
+      <c r="AO232">
+        <v>0</v>
+      </c>
+      <c r="AP232">
+        <v>0</v>
+      </c>
+      <c r="AQ232">
+        <v>0.3854166666583334</v>
+      </c>
+    </row>
+    <row r="233" spans="1:43">
+      <c r="A233" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <v>1</v>
+      </c>
+      <c r="AD233">
+        <v>1</v>
+      </c>
+      <c r="AE233">
+        <v>1</v>
+      </c>
+      <c r="AF233">
+        <v>1</v>
+      </c>
+      <c r="AG233">
+        <v>1</v>
+      </c>
+      <c r="AH233">
+        <v>1</v>
+      </c>
+      <c r="AI233">
+        <v>0</v>
+      </c>
+      <c r="AJ233">
+        <v>0</v>
+      </c>
+      <c r="AK233">
+        <v>0</v>
+      </c>
+      <c r="AL233">
+        <v>0</v>
+      </c>
+      <c r="AM233">
+        <v>0</v>
+      </c>
+      <c r="AN233">
+        <v>0</v>
+      </c>
+      <c r="AO233">
+        <v>0</v>
+      </c>
+      <c r="AP233">
+        <v>0</v>
+      </c>
+      <c r="AQ233">
+        <v>0.3854166666583334</v>
       </c>
     </row>
   </sheetData>
@@ -29937,6 +31554,9 @@
       <c r="B14" t="s">
         <v>20</v>
       </c>
+      <c r="C14" s="2">
+        <v>43912</v>
+      </c>
       <c r="D14" s="2">
         <v>44032</v>
       </c>
@@ -29948,6 +31568,9 @@
       <c r="B15" t="s">
         <v>26</v>
       </c>
+      <c r="C15" s="2">
+        <v>43909</v>
+      </c>
       <c r="D15" s="2">
         <v>44022</v>
       </c>
@@ -30112,6 +31735,9 @@
       </c>
       <c r="B27" t="s">
         <v>39</v>
+      </c>
+      <c r="C27" s="2">
+        <v>43912</v>
       </c>
       <c r="D27" s="2">
         <v>44032</v>
